--- a/data/trans_orig/IP05A04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP05A04-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EF742FB-8C89-450D-A0C1-2CFBA67D8523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97F12C49-81AE-4809-A8A2-5AABC3F744E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4509450B-88EB-47E1-B5DF-D0E091B8B9E5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{08AB3D6D-6A07-4BFD-B5B1-8719EFC7ABF8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="423">
   <si>
     <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2007 (Tasa respuesta: 98,95%)</t>
   </si>
@@ -107,1108 +107,1132 @@
     <t>80,05%</t>
   </si>
   <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
   </si>
   <si>
     <t>84,65%</t>
   </si>
   <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
   </si>
   <si>
     <t>82,39%</t>
   </si>
   <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
   </si>
   <si>
     <t>16,0%</t>
   </si>
   <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
   </si>
   <si>
     <t>13,95%</t>
   </si>
   <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
   </si>
   <si>
     <t>14,96%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
   </si>
   <si>
     <t>3,95%</t>
   </si>
   <si>
-    <t>1,49%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2012 (Tasa respuesta: 99,57%)</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
   </si>
   <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2016 (Tasa respuesta: 99,44%)</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2023 (Tasa respuesta: 99,64%)</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
   </si>
   <si>
     <t>0,95%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2012 (Tasa respuesta: 99,57%)</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2015 (Tasa respuesta: 99,44%)</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>Población según si su barrio se encuentra afectado por alguna industria contaminante en 2023 (Tasa respuesta: 99,64%)</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
+    <t>96,4%</t>
   </si>
   <si>
     <t>93,25%</t>
   </si>
   <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
+    <t>98,27%</t>
   </si>
   <si>
     <t>95,9%</t>
   </si>
   <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
   </si>
   <si>
     <t>96,17%</t>
   </si>
   <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>6,86%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
   </si>
   <si>
     <t>2,91%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>1,97%</t>
+    <t>2,11%</t>
   </si>
   <si>
     <t>1,33%</t>
@@ -1217,70 +1241,73 @@
     <t>0,39%</t>
   </si>
   <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
     <t>95,36%</t>
   </si>
   <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
   </si>
   <si>
     <t>95,7%</t>
   </si>
   <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
   </si>
   <si>
     <t>95,52%</t>
   </si>
   <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
+    <t>2,28%</t>
   </si>
   <si>
     <t>3,01%</t>
   </si>
   <si>
+    <t>2,04%</t>
+  </si>
+  <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>4,04%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
   </si>
   <si>
     <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
   </si>
 </sst>
 </file>
@@ -1692,7 +1719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B983791B-40F5-46C0-80E6-97B5D069DB77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48326AC7-FBC8-4391-B5F6-EBFD673A5228}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2238,10 +2265,10 @@
         <v>51</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M12" s="7">
         <v>1199</v>
@@ -2250,13 +2277,13 @@
         <v>793504</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2271,13 +2298,13 @@
         <v>34162</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H13" s="7">
         <v>56</v>
@@ -2286,13 +2313,13 @@
         <v>37557</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M13" s="7">
         <v>107</v>
@@ -2301,13 +2328,13 @@
         <v>71720</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,13 +2349,13 @@
         <v>7919</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -2337,13 +2364,13 @@
         <v>7976</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M14" s="7">
         <v>24</v>
@@ -2352,13 +2379,13 @@
         <v>15895</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2414,7 +2441,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2426,13 +2453,13 @@
         <v>139034</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H16" s="7">
         <v>219</v>
@@ -2441,13 +2468,13 @@
         <v>149185</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M16" s="7">
         <v>426</v>
@@ -2456,13 +2483,13 @@
         <v>288218</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2477,13 +2504,13 @@
         <v>15121</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -2492,13 +2519,13 @@
         <v>21113</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -2507,13 +2534,13 @@
         <v>36234</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2528,13 +2555,13 @@
         <v>3298</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -2543,13 +2570,13 @@
         <v>2222</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
@@ -2558,13 +2585,13 @@
         <v>5520</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,13 +2659,13 @@
         <v>638090</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H20" s="7">
         <v>883</v>
@@ -2647,13 +2674,13 @@
         <v>589695</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>1842</v>
@@ -2662,13 +2689,13 @@
         <v>1227786</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,13 +2710,13 @@
         <v>63180</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H21" s="7">
         <v>106</v>
@@ -2698,13 +2725,13 @@
         <v>71167</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M21" s="7">
         <v>201</v>
@@ -2713,13 +2740,13 @@
         <v>134347</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,13 +2761,13 @@
         <v>14646</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -2749,13 +2776,13 @@
         <v>11445</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
@@ -2764,13 +2791,13 @@
         <v>26091</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,7 +2853,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2846,7 +2873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D487938A-462E-46F7-BB6C-4424E9D6AB59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1C32A4-8F2A-446A-848D-18519E02A910}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2863,7 +2890,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3168,13 +3195,13 @@
         <v>76724</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H8" s="7">
         <v>125</v>
@@ -3183,13 +3210,13 @@
         <v>85772</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M8" s="7">
         <v>232</v>
@@ -3198,13 +3225,13 @@
         <v>162497</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,13 +3246,13 @@
         <v>6718</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -3234,13 +3261,13 @@
         <v>4366</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M9" s="7">
         <v>16</v>
@@ -3249,13 +3276,13 @@
         <v>11084</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3270,13 +3297,13 @@
         <v>2750</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -3285,13 +3312,13 @@
         <v>1463</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -3300,13 +3327,13 @@
         <v>4212</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3401,13 @@
         <v>453419</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H12" s="7">
         <v>607</v>
@@ -3389,13 +3416,13 @@
         <v>419324</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M12" s="7">
         <v>1256</v>
@@ -3404,13 +3431,13 @@
         <v>872744</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,13 +3452,13 @@
         <v>32328</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -3440,13 +3467,13 @@
         <v>25199</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M13" s="7">
         <v>84</v>
@@ -3455,13 +3482,13 @@
         <v>57528</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,13 +3503,13 @@
         <v>7052</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -3491,13 +3518,13 @@
         <v>5066</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -3506,13 +3533,13 @@
         <v>12118</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,7 +3595,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3580,13 +3607,13 @@
         <v>154873</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
         <v>216</v>
@@ -3595,13 +3622,13 @@
         <v>152847</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>436</v>
@@ -3610,13 +3637,13 @@
         <v>307720</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,13 +3658,13 @@
         <v>13797</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -3646,13 +3673,13 @@
         <v>8362</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M17" s="7">
         <v>31</v>
@@ -3661,13 +3688,13 @@
         <v>22160</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,13 +3709,13 @@
         <v>2202</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -3697,10 +3724,10 @@
         <v>5602</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>200</v>
@@ -3888,7 +3915,7 @@
         <v>12004</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>222</v>
@@ -3980,7 +4007,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4000,7 +4027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A290E532-83E6-4F4F-B7E9-631C2AB12989}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2776EE-D571-4308-8400-17CE92F6936E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4509,16 +4536,16 @@
         <v>616</v>
       </c>
       <c r="D12" s="7">
-        <v>434078</v>
+        <v>434079</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>258</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H12" s="7">
         <v>624</v>
@@ -4527,13 +4554,13 @@
         <v>415794</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M12" s="7">
         <v>1240</v>
@@ -4563,13 +4590,13 @@
         <v>36670</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -4578,7 +4605,7 @@
         <v>38186</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>268</v>
@@ -4620,7 +4647,7 @@
         <v>274</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -4629,13 +4656,13 @@
         <v>15368</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M14" s="7">
         <v>48</v>
@@ -4644,13 +4671,13 @@
         <v>31038</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4662,7 +4689,7 @@
         <v>692</v>
       </c>
       <c r="D15" s="7">
-        <v>486418</v>
+        <v>486419</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -4706,7 +4733,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4718,7 +4745,7 @@
         <v>174360</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>281</v>
+        <v>188</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>282</v>
@@ -4736,10 +4763,10 @@
         <v>284</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M16" s="7">
         <v>497</v>
@@ -4748,13 +4775,13 @@
         <v>338916</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,13 +4796,13 @@
         <v>10515</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -4784,13 +4811,13 @@
         <v>5083</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -4799,13 +4826,13 @@
         <v>15598</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,13 +4847,13 @@
         <v>1856</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>298</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>194</v>
+        <v>300</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -4835,13 +4862,13 @@
         <v>1862</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>225</v>
+        <v>301</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -4850,13 +4877,13 @@
         <v>3718</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>253</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,13 +4951,13 @@
         <v>666294</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H20" s="7">
         <v>948</v>
@@ -4939,13 +4966,13 @@
         <v>632960</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="M20" s="7">
         <v>1899</v>
@@ -4954,13 +4981,13 @@
         <v>1299254</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4975,13 +5002,13 @@
         <v>52661</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H21" s="7">
         <v>72</v>
@@ -4990,13 +5017,13 @@
         <v>45780</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>271</v>
+        <v>319</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="M21" s="7">
         <v>148</v>
@@ -5005,13 +5032,13 @@
         <v>98441</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,13 +5053,13 @@
         <v>22810</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -5041,13 +5068,13 @@
         <v>20856</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>319</v>
+        <v>118</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="M22" s="7">
         <v>67</v>
@@ -5056,13 +5083,13 @@
         <v>43666</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,7 +5145,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5138,7 +5165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24EF2CCD-7EA9-430D-B78C-6192224D9043}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1163070B-917F-42D2-8AB1-DEB7B7ADE2CA}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5155,7 +5182,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5444,13 +5471,13 @@
         <v>50426</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="H8" s="7">
         <v>62</v>
@@ -5459,13 +5486,13 @@
         <v>47141</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="M8" s="7">
         <v>134</v>
@@ -5474,13 +5501,13 @@
         <v>97569</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>334</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5495,13 +5522,13 @@
         <v>3689</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>335</v>
+        <v>200</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -5510,13 +5537,13 @@
         <v>2027</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -5525,13 +5552,13 @@
         <v>5715</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,13 +5573,13 @@
         <v>4115</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>345</v>
+        <v>227</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5561,13 +5588,13 @@
         <v>1610</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -5576,13 +5603,13 @@
         <v>5725</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>220</v>
+        <v>354</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5650,13 +5677,13 @@
         <v>472822</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="H12" s="7">
         <v>614</v>
@@ -5665,13 +5692,13 @@
         <v>431083</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="M12" s="7">
         <v>1244</v>
@@ -5680,13 +5707,13 @@
         <v>903905</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5701,13 +5728,13 @@
         <v>15414</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>360</v>
+        <v>124</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -5716,13 +5743,13 @@
         <v>13366</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -5731,13 +5758,13 @@
         <v>28780</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,13 +5779,13 @@
         <v>4128</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>367</v>
+        <v>299</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -5767,13 +5794,13 @@
         <v>4786</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -5782,13 +5809,13 @@
         <v>8914</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>67</v>
+        <v>377</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>378</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>372</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,7 +5871,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5856,13 +5883,13 @@
         <v>166558</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="H16" s="7">
         <v>219</v>
@@ -5871,13 +5898,13 @@
         <v>144712</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="M16" s="7">
         <v>446</v>
@@ -5886,13 +5913,13 @@
         <v>311270</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,13 +5934,13 @@
         <v>5242</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>244</v>
+        <v>388</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -5922,13 +5949,13 @@
         <v>4180</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>45</v>
+        <v>391</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="M17" s="7">
         <v>14</v>
@@ -5937,13 +5964,13 @@
         <v>9423</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,13 +5985,13 @@
         <v>975</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -5973,13 +6000,13 @@
         <v>2002</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>148</v>
+        <v>400</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -5988,13 +6015,13 @@
         <v>2977</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>151</v>
+        <v>222</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>298</v>
+        <v>401</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>69</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,13 +6089,13 @@
         <v>689807</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="H20" s="7">
         <v>895</v>
@@ -6077,13 +6104,13 @@
         <v>622936</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="M20" s="7">
         <v>1824</v>
@@ -6092,13 +6119,13 @@
         <v>1312743</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,13 +6140,13 @@
         <v>24345</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>403</v>
+        <v>153</v>
       </c>
       <c r="H21" s="7">
         <v>33</v>
@@ -6128,13 +6155,13 @@
         <v>19573</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>360</v>
+        <v>415</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="M21" s="7">
         <v>65</v>
@@ -6143,13 +6170,13 @@
         <v>43918</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>155</v>
+        <v>417</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,13 +6191,13 @@
         <v>9218</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>408</v>
+        <v>178</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>409</v>
+        <v>370</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -6179,13 +6206,13 @@
         <v>8398</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -6194,13 +6221,13 @@
         <v>17617</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>413</v>
+        <v>93</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,7 +6283,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
